--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70A4527C-7A82-4409-866F-0101530E8E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1641AA94-4124-4E40-87D2-62CA497785AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11472" xr2:uid="{6FC3AD72-3D58-45F1-8F7D-F3320F1C4FC7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Formulized to categories" sheetId="1" r:id="rId1"/>
+    <sheet name="Summorized" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="225">
   <si>
     <t>Lijune</t>
   </si>
@@ -279,13 +280,740 @@
   </si>
   <si>
     <t>Jade</t>
+  </si>
+  <si>
+    <r>
+      <t>Interviewer 1 (Monty)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Interviewer 3 (Lijune)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Interviewer 4 (Kirill)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Customer service </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Normally he does not have issue to contact customer, but if he contacts them normally, they help his problem within 15 mins </t>
+  </si>
+  <si>
+    <t>She does not contact customer service, but sometimes she has issues with top up, she needs to contact CS, and they are very friendly, so makes she keep using Giffgaff </t>
+  </si>
+  <si>
+    <t>Had several issues, doesn’t like experience with redundant technologies. Experience with people was good </t>
+  </si>
+  <si>
+    <t>Avoids contacting customer service, would rather switch </t>
+  </si>
+  <si>
+    <t>Has contacted customer service once and had a smooth and positive experience because she got a free £30 plan from the customer service </t>
+  </si>
+  <si>
+    <t>Customer service waiting time was too high, but he doesn’t face a lot of issues so has to contact them rarely </t>
+  </si>
+  <si>
+    <r>
+      <t>Primary consumption </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Data </t>
+  </si>
+  <si>
+    <t>Calls  </t>
+  </si>
+  <si>
+    <r>
+      <t>Loyalty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>He is very loyalty, using Vodafone for 7 years </t>
+  </si>
+  <si>
+    <t>There has no real for her want to change other providers, because she used to travel a lot in EU and Giffgaff can use in lots of Europe countries. </t>
+  </si>
+  <si>
+    <t>Thinks of switching with ought hard feelings </t>
+  </si>
+  <si>
+    <t>Likes features of the current service, yet thought of switching </t>
+  </si>
+  <si>
+    <t>Thinks of switching if better service offered in the same price </t>
+  </si>
+  <si>
+    <t>Loyal because has been using the same service for 12 years and is comfortable </t>
+  </si>
+  <si>
+    <r>
+      <t>Ease of switching</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>It is easy to switch for Vodafone, but because he has no problem using this company, he will keep using it. </t>
+  </si>
+  <si>
+    <t>She believes it is easy to switch, but she never thinks about switching so never uses the function. </t>
+  </si>
+  <si>
+    <t>Doesn’t know how to keep the number therefore hard </t>
+  </si>
+  <si>
+    <t>Assumes having no problem with it, yet thinks it could be easier with e-sims </t>
+  </si>
+  <si>
+    <t>She thinks it will be easy here, and could change if the same services are provided by another provider in lesser price or better service in same price </t>
+  </si>
+  <si>
+    <t>Has not thought of switching and find current provider easy to use  </t>
+  </si>
+  <si>
+    <r>
+      <t>Sim only deals and Contracts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>He uses Contracts deals, and negotiated for discount £8 each month for unlimited plan  </t>
+  </si>
+  <si>
+    <t>She uses Sim only deal and top up every month depending on the demand. </t>
+  </si>
+  <si>
+    <t>Sim only </t>
+  </si>
+  <si>
+    <t>Pay as you go </t>
+  </si>
+  <si>
+    <t>Monthly contract/subscription </t>
+  </si>
+  <si>
+    <r>
+      <t>Consumption magnitude</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Unlimited data  </t>
+  </si>
+  <si>
+    <t>Top up every month  </t>
+  </si>
+  <si>
+    <t>5g </t>
+  </si>
+  <si>
+    <t>450g </t>
+  </si>
+  <si>
+    <t>Unlimited minutes, 20GB data, 50 international minutes </t>
+  </si>
+  <si>
+    <t>Unlimited minutes, 8GB data </t>
+  </si>
+  <si>
+    <r>
+      <t>Price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>£30/ month </t>
+  </si>
+  <si>
+    <t>Depend on the demand (normally 15G for £10) </t>
+  </si>
+  <si>
+    <t>£15 bundle/month </t>
+  </si>
+  <si>
+    <t>£15/month </t>
+  </si>
+  <si>
+    <r>
+      <t>Knowledge about the service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>He does not explore the functions, but during the interview, he found out you can have a function of top up to your friends, and he thinks this is brilliant idea. </t>
+  </si>
+  <si>
+    <t>Doesn’t know about other plans because she doesn’t have problem with current plan  </t>
+  </si>
+  <si>
+    <t>Doesn’t know much about the current plan, competitors and what features are available </t>
+  </si>
+  <si>
+    <t>Knows about his plan about other plans he thinks to switch to, knows about a lot of features  </t>
+  </si>
+  <si>
+    <t>Aware about the plan she uses </t>
+  </si>
+  <si>
+    <t>Knows about his plan and services as is accustomed to the provider </t>
+  </si>
+  <si>
+    <r>
+      <t>Additional benefits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>He uses contact deal and he use quite long years so for him, he makes a deal with the provider for discount £8 per month  </t>
+  </si>
+  <si>
+    <t>The reason she uses Giffgaff because she gets the sim card for free when she relocates to the UK from Hong Kong, so it’s easy for her to set up the number and top up so that is why she keep use Giffgaff </t>
+  </si>
+  <si>
+    <t>Can consider Gadgets and other benefits, but is one of the least important features of the plan </t>
+  </si>
+  <si>
+    <t>Could consider for gadgets such as iPhone </t>
+  </si>
+  <si>
+    <t>Gadgets/coupons are not a parameter because would like to buy themselves </t>
+  </si>
+  <si>
+    <t>Nothing </t>
+  </si>
+  <si>
+    <r>
+      <t>Ease of usage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>It is easy to use on the App, but he does not think it’s easy to use on the website. </t>
+  </si>
+  <si>
+    <t>It’s easy to use.  </t>
+  </si>
+  <si>
+    <t>Finds it very difficult to understand webs service navigation, topping up makes a lot of hassle.  </t>
+  </si>
+  <si>
+    <t>Finds it very difficult to understand webs service navigation, topping up makes a lot of hassle. </t>
+  </si>
+  <si>
+    <t>Initially she did not find it easy, but now app usage and website are easy  </t>
+  </si>
+  <si>
+    <t>Easy to use </t>
+  </si>
+  <si>
+    <r>
+      <t>Coverage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Unlimited Max (includes both mins, texts, and data) </t>
+  </si>
+  <si>
+    <t>15G with unlimited calls and texts (and Eu roaming 5 G) </t>
+  </si>
+  <si>
+    <t>Can’t find connection only in subway, otherwise no problems with speed or wideness of network </t>
+  </si>
+  <si>
+    <t>Is not satisfied with 5g coverage of the network in some areas. Strongly dissatisfied with the latter. </t>
+  </si>
+  <si>
+    <t>Coverage is sketchy, not entirely satisfied </t>
+  </si>
+  <si>
+    <t>Is happy with the coverage </t>
+  </si>
+  <si>
+    <r>
+      <t>Reputation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>The reason he uses Vodafone is because it is a famous company, and the reputation is good, so he feels comfortable using Vodafone. </t>
+  </si>
+  <si>
+    <t>She does not really care about reputation.  </t>
+  </si>
+  <si>
+    <t>Finds it important for the company to have a good reputation in terms of fraud and sustainability. </t>
+  </si>
+  <si>
+    <t>Thinks of the reputation more as about rumors, yet when they are proved by solid facts believes it is important. </t>
+  </si>
+  <si>
+    <t>Initial thoughts are she does not care about reputation but if something extreme occurs, she might consider it </t>
+  </si>
+  <si>
+    <t>He does not care a lot about the reputation of the company, only about the service  </t>
+  </si>
+  <si>
+    <r>
+      <t>Interviewer 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Ashley) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Interviewer 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(James) </t>
+    </r>
+  </si>
+  <si>
+    <t>Interviewer 2 (Jade) </t>
+  </si>
+  <si>
+    <t>Doesn’t think of gadgets and other benefits as something she would purchase with her plan. She pays only for what is used </t>
+  </si>
+  <si>
+    <t>£10 
+Very important  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£35 
+Thinks of the quality first 
+</t>
+  </si>
+  <si>
+    <r>
+      <t>Interviewer 8 (Manthan) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Interviewer 9 (Judy) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Never contacted the Customer Service. </t>
+  </si>
+  <si>
+    <t>Contacted service for website issue and received delay in service  </t>
+  </si>
+  <si>
+    <t>Never contacted Customer service </t>
+  </si>
+  <si>
+    <t>Contacted service for top-up $10 every month and the service were best  </t>
+  </si>
+  <si>
+    <t>Contacted service for EMI plans, Gadgets and etc. And everytime the service was good </t>
+  </si>
+  <si>
+    <t> call </t>
+  </si>
+  <si>
+    <t>She states to be loyal, but has a very short experience </t>
+  </si>
+  <si>
+    <t>He states to be loyal as he had a deal of 24 months gadget plan </t>
+  </si>
+  <si>
+    <t>She states to be loyal. </t>
+  </si>
+  <si>
+    <t>She stays to be loyal to the company as its easy service </t>
+  </si>
+  <si>
+    <t>He stays loyal as long as it gives benefits else he would change </t>
+  </si>
+  <si>
+    <t>Neither has knowledge about switching nor even tried as she is fine with the services </t>
+  </si>
+  <si>
+    <t>He is not likely to switch as he already uses two sim card, and his requirements are fulfilled   </t>
+  </si>
+  <si>
+    <t>She refuses to switch to any other network provider </t>
+  </si>
+  <si>
+    <t>She doesn’t have much knowledge about the company so she will not be able to switch </t>
+  </si>
+  <si>
+    <t>He is likely to switch to other company if they offer some good benefits </t>
+  </si>
+  <si>
+    <t>Sim only deal. Obtained the Sim from UKVI office, India </t>
+  </si>
+  <si>
+    <t>Dealing in gadget contract of 24 months with calls and data included. Obtained by buying online contract. </t>
+  </si>
+  <si>
+    <t>Sim only deal. Obtained from the stores. </t>
+  </si>
+  <si>
+    <t>Sime only deal, searched online and bought it </t>
+  </si>
+  <si>
+    <t>Sim and deal contract, asked friends and bought it </t>
+  </si>
+  <si>
+    <t>She consumes around 7GB data a month, which is the maximum she gets in her pack </t>
+  </si>
+  <si>
+    <t>He consumes 2-3GB of data per day  </t>
+  </si>
+  <si>
+    <t>She had indefinite usage, it depends upon the workload. She says approx. 5GB per day  </t>
+  </si>
+  <si>
+    <t>She consumes 2GB per day, unlimited text, calls and 100 mins international calls </t>
+  </si>
+  <si>
+    <t>He consumes lots of data as its unlimited </t>
+  </si>
+  <si>
+    <t>£10/month </t>
+  </si>
+  <si>
+    <t>64/month </t>
+  </si>
+  <si>
+    <t>30/month </t>
+  </si>
+  <si>
+    <t>£10/ month </t>
+  </si>
+  <si>
+    <t>£38/ month </t>
+  </si>
+  <si>
+    <t>Does not explore other plans, as the current plans meets her requirements </t>
+  </si>
+  <si>
+    <t>Explored the plans at the beginning and now continues with the same </t>
+  </si>
+  <si>
+    <t>She doesn't have knowledge about the plans and service, and wants to continue with same plan  </t>
+  </si>
+  <si>
+    <t>She doesn’t have much knowledge on the company, so she is happy about current plans </t>
+  </si>
+  <si>
+    <t>He explored lot about service and and he is aware of it </t>
+  </si>
+  <si>
+    <t>nothing </t>
+  </si>
+  <si>
+    <t>Yes, gadgets plans  </t>
+  </si>
+  <si>
+    <t>Yes, gadgets </t>
+  </si>
+  <si>
+    <t>It is quite easy to use the App, she uses Auto-top up function. Never used the website. </t>
+  </si>
+  <si>
+    <t>Yes, he says the usage of the app is quite friendly and easy going  </t>
+  </si>
+  <si>
+    <t>Easy to use, but less frequent use  </t>
+  </si>
+  <si>
+    <t> Easy to use </t>
+  </si>
+  <si>
+    <t>Does not like the lack of signals in subways. Other than that, she gets 5G connectivity almost everywhere </t>
+  </si>
+  <si>
+    <t>The coverage for the “Three” network provider is limited, but he is satisfied with “Lebara” </t>
+  </si>
+  <si>
+    <t>She is very satisfied with the coverage  </t>
+  </si>
+  <si>
+    <t>Is happy with coverage </t>
+  </si>
+  <si>
+    <t>Is satisfied with coverage </t>
+  </si>
+  <si>
+    <t>Reputation doesn’t matter much, unless there is some very critical convictions. Even the general allegations doesn’t matter much. </t>
+  </si>
+  <si>
+    <t>Reputation and recommendations from the family and friends matter  </t>
+  </si>
+  <si>
+    <t>She says reputation of Vodafone is positive as compared to other network provider </t>
+  </si>
+  <si>
+    <t>Reputation does matter, as she searched  online </t>
+  </si>
+  <si>
+    <t>Reputation doesn’t matter </t>
+  </si>
+  <si>
+    <r>
+      <t>Interviewer 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Naveena) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Interviewer 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (Isha) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Interviewer 11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (Amar) </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +1021,19 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -303,7 +1044,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -311,12 +1052,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,7 +1434,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1426,5 +2226,572 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7134C6C-29F0-4365-91B1-D0BE217EA1E1}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="7" width="20.578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.3671875" customWidth="1"/>
+    <col min="9" max="14" width="20.578125" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="8.83984375" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="214.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="76.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="91.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="76.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="76.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="61.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="153" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="183.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="107.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="107.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="91.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.3" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:12" ht="45.9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" spans="6:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" s="5"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="6:8" ht="15.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="6:8" ht="15.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="6:8" ht="15.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="6:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="6:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="6:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="6:8" ht="15.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="6:8" ht="15.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="6:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="6:8" ht="15.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="6:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="6:8" ht="15.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="6:8" ht="15.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="6:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H32" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>